--- a/data/ASTR.xlsx
+++ b/data/ASTR.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -415,6 +445,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -437,6 +482,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -459,6 +519,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -476,10 +551,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PHYS 132 or PHYS 122 and MATH 141 or MATH 161.</t>
+          <t>PHYS 132 or PHYS 122 and MATH 141 or MATH 161.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -498,10 +588,25 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PHYS 122 or PHYS 132; and MATH 141 or MATH 161.</t>
+          <t>PHYS 122 or PHYS 132; and MATH 141 or MATH 161.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -520,10 +625,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MATH 119; junior standing; completion of GE Area A with grades of C- or better; completion of GE Area B1 with a grade of C- or better in at least one of the courses; and completion of GE Areas B2, B3, and B4.</t>
+          <t>MATH 119; junior standing; completion of GE Area A with grades of C- or better; completion of GE Area B1 with a grade of C- or better in at least one of the courses; and completion of GE Areas B2, B3, and B4.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -542,10 +662,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PHYS 211 (may be taken concurrently).</t>
+          <t>PHYS 211 (may be taken concurrently).</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -569,6 +704,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -591,6 +741,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -608,10 +773,25 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ASTR 302.</t>
+          <t>ASTR 302.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -635,6 +815,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -656,6 +851,21 @@
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
